--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -3947,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4018,10 +4018,10 @@
         <v>0.1</v>
       </c>
       <c r="H2" s="73">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2">
         <v>2</v>
@@ -4053,7 +4053,7 @@
         <v>14300</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
@@ -4085,7 +4085,7 @@
         <v>13200</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
@@ -4116,8 +4116,8 @@
       <c r="H5" s="73">
         <v>12100</v>
       </c>
-      <c r="I5" s="2">
-        <v>5</v>
+      <c r="I5" s="19">
+        <v>62</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -4148,8 +4148,8 @@
       <c r="H6" s="73">
         <v>15950</v>
       </c>
-      <c r="I6" s="2">
-        <v>5</v>
+      <c r="I6" s="19">
+        <v>62</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -4180,8 +4180,8 @@
       <c r="H7" s="73">
         <v>16720</v>
       </c>
-      <c r="I7" s="2">
-        <v>5</v>
+      <c r="I7" s="19">
+        <v>62</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
@@ -4212,8 +4212,8 @@
       <c r="H8" s="73">
         <v>16720</v>
       </c>
-      <c r="I8" s="2">
-        <v>5</v>
+      <c r="I8" s="19">
+        <v>62</v>
       </c>
       <c r="J8" s="2">
         <v>2</v>
@@ -4244,8 +4244,8 @@
       <c r="H9" s="73">
         <v>16280</v>
       </c>
-      <c r="I9" s="2">
-        <v>5</v>
+      <c r="I9" s="19">
+        <v>62</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -4276,8 +4276,8 @@
       <c r="H10" s="73">
         <v>12980</v>
       </c>
-      <c r="I10" s="2">
-        <v>5</v>
+      <c r="I10" s="19">
+        <v>62</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -4308,8 +4308,8 @@
       <c r="H11" s="73">
         <v>9900</v>
       </c>
-      <c r="I11" s="2">
-        <v>5</v>
+      <c r="I11" s="19">
+        <v>62</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -4340,8 +4340,8 @@
       <c r="H12" s="73">
         <v>11880</v>
       </c>
-      <c r="I12" s="2">
-        <v>5</v>
+      <c r="I12" s="19">
+        <v>62</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -4372,8 +4372,8 @@
       <c r="H13" s="73">
         <v>12650</v>
       </c>
-      <c r="I13" s="2">
-        <v>5</v>
+      <c r="I13" s="19">
+        <v>62</v>
       </c>
       <c r="J13" s="2">
         <v>2</v>
@@ -4404,8 +4404,8 @@
       <c r="H14" s="73">
         <v>3740</v>
       </c>
-      <c r="I14" s="2">
-        <v>5</v>
+      <c r="I14" s="19">
+        <v>62</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
@@ -4436,8 +4436,8 @@
       <c r="H15" s="73">
         <v>5500</v>
       </c>
-      <c r="I15" s="2">
-        <v>5</v>
+      <c r="I15" s="19">
+        <v>62</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -4468,8 +4468,8 @@
       <c r="H16" s="73">
         <v>9240</v>
       </c>
-      <c r="I16" s="2">
-        <v>5</v>
+      <c r="I16" s="19">
+        <v>62</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
@@ -4500,8 +4500,8 @@
       <c r="H17" s="73">
         <v>11000</v>
       </c>
-      <c r="I17" s="2">
-        <v>5</v>
+      <c r="I17" s="19">
+        <v>62</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
@@ -4532,8 +4532,8 @@
       <c r="H18" s="73">
         <v>10670</v>
       </c>
-      <c r="I18" s="2">
-        <v>5</v>
+      <c r="I18" s="19">
+        <v>62</v>
       </c>
       <c r="J18" s="2">
         <v>2</v>
@@ -4564,8 +4564,8 @@
       <c r="H19" s="73">
         <v>10340</v>
       </c>
-      <c r="I19" s="2">
-        <v>5</v>
+      <c r="I19" s="19">
+        <v>62</v>
       </c>
       <c r="J19" s="2">
         <v>2</v>
@@ -4596,8 +4596,8 @@
       <c r="H20" s="73">
         <v>18370</v>
       </c>
-      <c r="I20" s="2">
-        <v>5</v>
+      <c r="I20" s="19">
+        <v>62</v>
       </c>
       <c r="J20" s="2">
         <v>2</v>
@@ -4628,8 +4628,8 @@
       <c r="H21" s="73">
         <v>25080</v>
       </c>
-      <c r="I21" s="2">
-        <v>5</v>
+      <c r="I21" s="19">
+        <v>62</v>
       </c>
       <c r="J21" s="2">
         <v>2</v>
@@ -4660,8 +4660,8 @@
       <c r="H22" s="73">
         <v>18370</v>
       </c>
-      <c r="I22" s="2">
-        <v>5</v>
+      <c r="I22" s="19">
+        <v>62</v>
       </c>
       <c r="J22" s="2">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>4840</v>
       </c>
       <c r="I23" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2">
         <v>2</v>
@@ -4725,8 +4725,8 @@
         <f>E24*G24+E24</f>
         <v>9570</v>
       </c>
-      <c r="I24" s="2">
-        <v>5</v>
+      <c r="I24" s="19">
+        <v>63</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
@@ -4757,8 +4757,8 @@
       <c r="H25" s="73">
         <v>11660</v>
       </c>
-      <c r="I25" s="2">
-        <v>5</v>
+      <c r="I25" s="19">
+        <v>63</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
@@ -4789,8 +4789,8 @@
       <c r="H26" s="73">
         <v>9900</v>
       </c>
-      <c r="I26" s="2">
-        <v>5</v>
+      <c r="I26" s="19">
+        <v>63</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -4821,8 +4821,8 @@
       <c r="H27" s="73">
         <v>5500</v>
       </c>
-      <c r="I27" s="2">
-        <v>5</v>
+      <c r="I27" s="19">
+        <v>63</v>
       </c>
       <c r="J27" s="2">
         <v>2</v>
@@ -4853,8 +4853,8 @@
       <c r="H28" s="73">
         <v>13750</v>
       </c>
-      <c r="I28" s="2">
-        <v>5</v>
+      <c r="I28" s="19">
+        <v>63</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
@@ -4885,8 +4885,8 @@
       <c r="H29" s="73">
         <v>19470</v>
       </c>
-      <c r="I29" s="2">
-        <v>5</v>
+      <c r="I29" s="19">
+        <v>63</v>
       </c>
       <c r="J29" s="2">
         <v>2</v>
@@ -4917,8 +4917,8 @@
       <c r="H30" s="73">
         <v>12870</v>
       </c>
-      <c r="I30" s="2">
-        <v>5</v>
+      <c r="I30" s="19">
+        <v>63</v>
       </c>
       <c r="J30" s="2">
         <v>2</v>
@@ -4949,8 +4949,8 @@
       <c r="H31" s="73">
         <v>11330</v>
       </c>
-      <c r="I31" s="2">
-        <v>5</v>
+      <c r="I31" s="19">
+        <v>63</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
@@ -4981,11 +4981,11 @@
       <c r="H32" s="73">
         <v>16720</v>
       </c>
-      <c r="I32" s="2">
-        <v>5</v>
+      <c r="I32" s="19">
+        <v>63</v>
       </c>
       <c r="J32" s="2">
-        <v>323</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15">
@@ -17499,6 +17499,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
